--- a/справочник массы.xlsx
+++ b/справочник массы.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="736">
   <si>
     <t>code</t>
   </si>
@@ -2189,6 +2189,51 @@
   </si>
   <si>
     <t>63.870</t>
+  </si>
+  <si>
+    <t>50-80</t>
+  </si>
+  <si>
+    <t>100-150</t>
+  </si>
+  <si>
+    <t>200-300</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.5.02.02-0011</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.5.02.02-0012</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.5.02.02-0013</t>
+  </si>
+  <si>
+    <t>377x8</t>
+  </si>
+  <si>
+    <t>377x9</t>
+  </si>
+  <si>
+    <t>377x10</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.5.02.02-0109</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.5.02.02-0110</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.5.02.02-0111</t>
+  </si>
+  <si>
+    <t>72.800</t>
+  </si>
+  <si>
+    <t>81.680</t>
+  </si>
+  <si>
+    <t>90.510</t>
   </si>
 </sst>
 </file>
@@ -2225,10 +2270,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2252,8 +2300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C198" totalsRowShown="0">
-  <autoFilter ref="A1:C198"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C126" totalsRowShown="0">
+  <autoFilter ref="A1:C126"/>
   <tableColumns count="3">
     <tableColumn id="1" name="code"/>
     <tableColumn id="2" name="name"/>
@@ -2537,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,6 +3914,72 @@
       </c>
       <c r="C120" t="s">
         <v>720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>724</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>725</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>726</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>730</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>731</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>732</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C126" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
